--- a/regions_data/Ciepłownictwo/data.xlsx
+++ b/regions_data/Ciepłownictwo/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="277">
   <si>
     <t xml:space="preserve">Moc zainstalowana</t>
   </si>
@@ -73,6 +73,12 @@
     <t xml:space="preserve">Średnia cena zakupu ciepła</t>
   </si>
   <si>
+    <t xml:space="preserve">Długość sieci na mieszkańca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolnośląskie</t>
+  </si>
+  <si>
     <t xml:space="preserve">3 526,9</t>
   </si>
   <si>
@@ -97,7 +103,7 @@
     <t xml:space="preserve">591,3</t>
   </si>
   <si>
-    <t xml:space="preserve">279 638,9</t>
+    <t xml:space="preserve">279,6389</t>
   </si>
   <si>
     <t xml:space="preserve">84,3</t>
@@ -118,6 +124,12 @@
     <t xml:space="preserve">0,03</t>
   </si>
   <si>
+    <t xml:space="preserve">0,59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kujawsko-pomorskie</t>
+  </si>
+  <si>
     <t xml:space="preserve">4 578,4</t>
   </si>
   <si>
@@ -145,7 +157,7 @@
     <t xml:space="preserve">1 335,0</t>
   </si>
   <si>
-    <t xml:space="preserve">719 014,8</t>
+    <t xml:space="preserve">719,0148</t>
   </si>
   <si>
     <t xml:space="preserve">90,2</t>
@@ -163,6 +175,12 @@
     <t xml:space="preserve">0,18</t>
   </si>
   <si>
+    <t xml:space="preserve">0,60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lubelskie</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 703,3</t>
   </si>
   <si>
@@ -190,7 +208,7 @@
     <t xml:space="preserve">498,8</t>
   </si>
   <si>
-    <t xml:space="preserve">75 969,9</t>
+    <t xml:space="preserve">75,9699</t>
   </si>
   <si>
     <t xml:space="preserve">96,0</t>
@@ -208,6 +226,12 @@
     <t xml:space="preserve">0,15</t>
   </si>
   <si>
+    <t xml:space="preserve">0,48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lubuskie</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 011,7</t>
   </si>
   <si>
@@ -235,7 +259,7 @@
     <t xml:space="preserve">214,4</t>
   </si>
   <si>
-    <t xml:space="preserve">109 866,1</t>
+    <t xml:space="preserve">109,8661</t>
   </si>
   <si>
     <t xml:space="preserve">73,8</t>
@@ -256,6 +280,12 @@
     <t xml:space="preserve">0,04</t>
   </si>
   <si>
+    <t xml:space="preserve">0,29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Łódzkie</t>
+  </si>
+  <si>
     <t xml:space="preserve">3 453,2</t>
   </si>
   <si>
@@ -283,7 +313,7 @@
     <t xml:space="preserve">566,1</t>
   </si>
   <si>
-    <t xml:space="preserve">368 536,6</t>
+    <t xml:space="preserve">368,5366</t>
   </si>
   <si>
     <t xml:space="preserve">85,6</t>
@@ -298,6 +328,12 @@
     <t xml:space="preserve">0,33</t>
   </si>
   <si>
+    <t xml:space="preserve">0,62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Małopolskie</t>
+  </si>
+  <si>
     <t xml:space="preserve">4 291,3</t>
   </si>
   <si>
@@ -325,7 +361,7 @@
     <t xml:space="preserve">740,3</t>
   </si>
   <si>
-    <t xml:space="preserve">376 436,1</t>
+    <t xml:space="preserve">376,4361</t>
   </si>
   <si>
     <t xml:space="preserve">85,4</t>
@@ -343,6 +379,9 @@
     <t xml:space="preserve">0,19</t>
   </si>
   <si>
+    <t xml:space="preserve">Mazowieckie</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 054,7</t>
   </si>
   <si>
@@ -370,7 +409,7 @@
     <t xml:space="preserve">1 283,2</t>
   </si>
   <si>
-    <t xml:space="preserve">676 301,9</t>
+    <t xml:space="preserve">676,3019</t>
   </si>
   <si>
     <t xml:space="preserve">91,4</t>
@@ -388,6 +427,12 @@
     <t xml:space="preserve">0,02</t>
   </si>
   <si>
+    <t xml:space="preserve">0,56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opolskie</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 576,0</t>
   </si>
   <si>
@@ -415,7 +460,7 @@
     <t xml:space="preserve">368,6</t>
   </si>
   <si>
-    <t xml:space="preserve">161 789,1</t>
+    <t xml:space="preserve">161,7891</t>
   </si>
   <si>
     <t xml:space="preserve">88,1</t>
@@ -430,6 +475,12 @@
     <t xml:space="preserve">0,36</t>
   </si>
   <si>
+    <t xml:space="preserve">0,61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podkarpackie</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 605,7</t>
   </si>
   <si>
@@ -457,7 +508,7 @@
     <t xml:space="preserve">308,5</t>
   </si>
   <si>
-    <t xml:space="preserve">60 054,4</t>
+    <t xml:space="preserve">60,0544</t>
   </si>
   <si>
     <t xml:space="preserve">95,0</t>
@@ -478,6 +529,12 @@
     <t xml:space="preserve">0,05</t>
   </si>
   <si>
+    <t xml:space="preserve">0,35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podlaskie</t>
+  </si>
+  <si>
     <t xml:space="preserve">723,8</t>
   </si>
   <si>
@@ -505,7 +562,7 @@
     <t xml:space="preserve">245,3</t>
   </si>
   <si>
-    <t xml:space="preserve">57 662,7</t>
+    <t xml:space="preserve">57,6627</t>
   </si>
   <si>
     <t xml:space="preserve">83,9</t>
@@ -523,6 +580,12 @@
     <t xml:space="preserve">0,16</t>
   </si>
   <si>
+    <t xml:space="preserve">0,53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pomorskie</t>
+  </si>
+  <si>
     <t xml:space="preserve">3 734,4</t>
   </si>
   <si>
@@ -550,7 +613,7 @@
     <t xml:space="preserve">1 055,7</t>
   </si>
   <si>
-    <t xml:space="preserve">302 051,6</t>
+    <t xml:space="preserve">302,0516</t>
   </si>
   <si>
     <t xml:space="preserve">104,3</t>
@@ -559,6 +622,12 @@
     <t xml:space="preserve">0,22</t>
   </si>
   <si>
+    <t xml:space="preserve">0,69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Śląskie</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 505,8</t>
   </si>
   <si>
@@ -586,7 +655,7 @@
     <t xml:space="preserve">1 992,6</t>
   </si>
   <si>
-    <t xml:space="preserve">881 454,7</t>
+    <t xml:space="preserve">881,4547</t>
   </si>
   <si>
     <t xml:space="preserve">82,2</t>
@@ -598,12 +667,15 @@
     <t xml:space="preserve">90,3</t>
   </si>
   <si>
-    <t xml:space="preserve">0,29</t>
-  </si>
-  <si>
     <t xml:space="preserve">0,13</t>
   </si>
   <si>
+    <t xml:space="preserve">0,68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Świętokrzyskie</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 237,5</t>
   </si>
   <si>
@@ -631,7 +703,7 @@
     <t xml:space="preserve">418,0</t>
   </si>
   <si>
-    <t xml:space="preserve">19 355,0</t>
+    <t xml:space="preserve">19,355</t>
   </si>
   <si>
     <t xml:space="preserve">77,4</t>
@@ -649,6 +721,12 @@
     <t xml:space="preserve">0,06</t>
   </si>
   <si>
+    <t xml:space="preserve">0,37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warmińsko-mazurskie</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 461,7</t>
   </si>
   <si>
@@ -676,7 +754,7 @@
     <t xml:space="preserve">514,6</t>
   </si>
   <si>
-    <t xml:space="preserve">80 012,8</t>
+    <t xml:space="preserve">80,0128</t>
   </si>
   <si>
     <t xml:space="preserve">73,2</t>
@@ -685,7 +763,10 @@
     <t xml:space="preserve">110,5</t>
   </si>
   <si>
-    <t xml:space="preserve">0,37</t>
+    <t xml:space="preserve">0,46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wielkopolskie</t>
   </si>
   <si>
     <t xml:space="preserve">3 372,1</t>
@@ -715,7 +796,7 @@
     <t xml:space="preserve">1 224,3</t>
   </si>
   <si>
-    <t xml:space="preserve">170 765,2</t>
+    <t xml:space="preserve">170,7652</t>
   </si>
   <si>
     <t xml:space="preserve">84,6</t>
@@ -727,6 +808,9 @@
     <t xml:space="preserve">107,1</t>
   </si>
   <si>
+    <t xml:space="preserve">Zachodniopomorskie</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 212,2</t>
   </si>
   <si>
@@ -754,7 +838,7 @@
     <t xml:space="preserve">606,0</t>
   </si>
   <si>
-    <t xml:space="preserve">133 115,6</t>
+    <t xml:space="preserve">133,1156</t>
   </si>
   <si>
     <t xml:space="preserve">87,9</t>
@@ -764,18 +848,24 @@
   </si>
   <si>
     <t xml:space="preserve">124,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -807,6 +897,13 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -822,7 +919,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -835,6 +932,13 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -863,7 +967,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -892,6 +996,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -909,929 +1029,1077 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q22" activeCellId="0" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.25"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6071428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="8.75"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.4948979591837"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.4897959183673"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.5714285714286"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.8163265306122"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.4336734693878"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="n">
         <v>22666</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="O2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="P2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="8" t="n">
         <v>61</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="10" t="n">
+        <v>2908457</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="8" t="n">
         <v>59.69</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="10" t="n">
+        <v>2089992</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>48</v>
+      <c r="A4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="0" t="n">
+      <c r="K4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="8" t="n">
         <v>52.4</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="10" t="n">
+        <v>2147746</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>63</v>
+      <c r="A5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="P5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="J5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="8" t="n">
         <v>61.43</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" s="10" t="n">
+        <v>1020307</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>79</v>
+      <c r="A6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="8" t="n">
         <v>53.96</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" s="10" t="n">
+        <v>2504136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>93</v>
+      <c r="A7" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>97</v>
+        <v>106</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="8" t="n">
         <v>56.7</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" s="10" t="n">
+        <v>3368336</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>108</v>
+      <c r="A8" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>112</v>
+        <v>122</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="8" t="n">
         <v>50.85</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="T8" s="10" t="n">
+        <v>5334511</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>123</v>
+      <c r="A9" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>127</v>
+        <v>139</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q9" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="8" t="n">
         <v>63.06</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="T9" s="10" t="n">
+        <v>1000858</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>137</v>
+      <c r="A10" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>141</v>
+        <v>155</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="R10" s="8" t="n">
         <v>58.35</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="T10" s="10" t="n">
+        <v>2129187</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>153</v>
+      <c r="A11" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>157</v>
+        <v>173</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" s="8" t="n">
         <v>57.44</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="T11" s="10" t="n">
+        <v>1191918</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>168</v>
+      <c r="A12" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>172</v>
+        <v>190</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="8" t="n">
         <v>58.92</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="T12" s="10" t="n">
+        <v>2302077</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>180</v>
+      <c r="A13" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>184</v>
+        <v>204</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R13" s="8" t="n">
         <v>57.78</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="T13" s="10" t="n">
+        <v>4585924</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>195</v>
+      <c r="A14" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>199</v>
+        <v>220</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q14" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="R14" s="8" t="n">
         <v>56.36</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="T14" s="10" t="n">
+        <v>1263176</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>210</v>
+      <c r="A15" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>214</v>
+        <v>237</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q15" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="R15" s="8" t="n">
         <v>57.42</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="T15" s="10" t="n">
+        <v>1443967</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>223</v>
+      <c r="A16" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>227</v>
+        <v>251</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K16" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="8" t="n">
         <v>60.9</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="T16" s="10" t="n">
+        <v>3472579</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>236</v>
+      <c r="A17" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>240</v>
+        <v>265</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" s="8" t="n">
         <v>61.31</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="T17" s="10" t="n">
+        <v>1715431</v>
       </c>
     </row>
   </sheetData>

--- a/regions_data/Ciepłownictwo/data.xlsx
+++ b/regions_data/Ciepłownictwo/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>Moc zainstalowana</t>
   </si>
@@ -191,6 +191,15 @@
   <si>
     <t>Zużycie ciepła ogółem</t>
   </si>
+  <si>
+    <t>Moc osiągalna</t>
+  </si>
+  <si>
+    <t>Moc wykorzystana</t>
+  </si>
+  <si>
+    <t>wykorzystana/osiągalna</t>
+  </si>
 </sst>
 </file>
 
@@ -330,7 +339,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -366,6 +375,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -726,6 +737,1241 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Moc osiągalna</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dolnośląskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kujawsko-pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lubelskie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lubuskie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Łódzkie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Małopolskie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mazowieckie</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Opolskie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Podkarpackie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Podlaskie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Śląskie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Świętokrzyskie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Warmińsko-mazurskie</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wielkopolskie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Zachodniopomorskie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$Z$2:$Z$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3512.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4548.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2665.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>828.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3701.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3961.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10096.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1590.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>727.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10285.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1217.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1458.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3042.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2200.6999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6919-4458-9FAB-32AB52299BA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Moc wykorzystana</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dolnośląskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kujawsko-pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lubelskie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lubuskie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Łódzkie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Małopolskie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mazowieckie</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Opolskie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Podkarpackie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Podlaskie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Śląskie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Świętokrzyskie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Warmińsko-mazurskie</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wielkopolskie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Zachodniopomorskie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$AA$2:$AA$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3046.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3647.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1842.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>632.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3105.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2760.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7688.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1338.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1041.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>656.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2757.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6823.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>916.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1248.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2440.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1759.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6919-4458-9FAB-32AB52299BA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1417536080"/>
+        <c:axId val="1508691984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1417536080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1508691984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1508691984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Moc [MW]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1417536080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Długość sieci ciepłowniczej na mieszkańca [m]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dolnośląskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kujawsko-pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lubelskie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lubuskie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Łódzkie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Małopolskie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mazowieckie</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Opolskie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Podkarpackie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Podlaskie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Śląskie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Świętokrzyskie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Warmińsko-mazurskie</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wielkopolskie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Zachodniopomorskie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$Y$2:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F57C-49D4-93B5-EDC40F1EC65C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="48"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1501276944"/>
+        <c:axId val="1514278176"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Długość sieci ciepłowniczej [km]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dolnośląskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kujawsko-pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lubelskie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lubuskie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Łódzkie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Małopolskie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mazowieckie</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Opolskie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Podkarpackie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Podlaskie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Śląskie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Świętokrzyskie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Warmińsko-mazurskie</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wielkopolskie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Zachodniopomorskie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1716.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1249.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1027.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>296.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1547.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1620.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>607.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>734.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3126.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>465.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>657.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F57C-49D4-93B5-EDC40F1EC65C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1358601024"/>
+        <c:axId val="1405579360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1501276944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514278176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1514278176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Długość sieci</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> ciepłowniczej na mieszkańca [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1501276944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1405579360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Długość sieci ciepłowniczej [km]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358601024"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1358601024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1405579360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1236,7 +2482,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$AB$1</c:f>
+              <c:f>Arkusz1!$AE$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1257,7 +2503,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$AA$2:$AA$17</c:f>
+              <c:f>Arkusz1!$AD$2:$AD$17</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1313,7 +2559,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$AB$2:$AB$17</c:f>
+              <c:f>Arkusz1!$AE$2:$AE$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1379,7 +2625,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$AC$1</c:f>
+              <c:f>Arkusz1!$AF$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1402,7 +2648,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$AA$2:$AA$17</c:f>
+              <c:f>Arkusz1!$AD$2:$AD$17</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1458,7 +2704,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$AC$2:$AC$17</c:f>
+              <c:f>Arkusz1!$AF$2:$AF$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1524,7 +2770,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$AD$1</c:f>
+              <c:f>Arkusz1!$AG$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1547,7 +2793,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$AA$2:$AA$17</c:f>
+              <c:f>Arkusz1!$AD$2:$AD$17</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1603,7 +2849,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$AD$2:$AD$17</c:f>
+              <c:f>Arkusz1!$AG$2:$AG$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1669,7 +2915,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$AE$1</c:f>
+              <c:f>Arkusz1!$AH$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1692,7 +2938,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$AA$2:$AA$17</c:f>
+              <c:f>Arkusz1!$AD$2:$AD$17</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1748,7 +2994,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$AE$2:$AE$17</c:f>
+              <c:f>Arkusz1!$AH$2:$AH$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1814,7 +3060,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$AF$1</c:f>
+              <c:f>Arkusz1!$AI$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1837,7 +3083,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$AA$2:$AA$17</c:f>
+              <c:f>Arkusz1!$AD$2:$AD$17</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1893,7 +3139,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$AF$2:$AF$17</c:f>
+              <c:f>Arkusz1!$AI$2:$AI$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1959,7 +3205,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$AG$1</c:f>
+              <c:f>Arkusz1!$AJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1982,7 +3228,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$AA$2:$AA$17</c:f>
+              <c:f>Arkusz1!$AD$2:$AD$17</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -2038,7 +3284,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$AG$2:$AG$17</c:f>
+              <c:f>Arkusz1!$AJ$2:$AJ$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2104,7 +3350,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$AH$1</c:f>
+              <c:f>Arkusz1!$AK$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2129,7 +3375,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$AA$2:$AA$17</c:f>
+              <c:f>Arkusz1!$AD$2:$AD$17</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -2185,7 +3431,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$AH$2:$AH$17</c:f>
+              <c:f>Arkusz1!$AK$2:$AK$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2251,7 +3497,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$AI$1</c:f>
+              <c:f>Arkusz1!$AL$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2274,7 +3520,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$AA$2:$AA$17</c:f>
+              <c:f>Arkusz1!$AD$2:$AD$17</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -2330,7 +3576,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$AI$2:$AI$17</c:f>
+              <c:f>Arkusz1!$AL$2:$AL$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4651,7 +5897,773 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Długość sieci ciepłowniczej na mieszkańca [m]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dolnośląskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kujawsko-pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lubelskie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lubuskie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Łódzkie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Małopolskie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mazowieckie</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Opolskie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Podkarpackie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Podlaskie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Śląskie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Świętokrzyskie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Warmińsko-mazurskie</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wielkopolskie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Zachodniopomorskie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1716.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1249.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1027.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>296.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1547.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1620.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>607.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>734.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3126.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>465.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>657.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1CA6-4BE9-8F55-49CF543E6617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="48"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1597839328"/>
+        <c:axId val="1515402320"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Długość sieci ciepłowniczej [km]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dolnośląskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kujawsko-pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lubelskie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lubuskie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Łódzkie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Małopolskie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mazowieckie</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Opolskie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Podkarpackie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Podlaskie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Śląskie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Świętokrzyskie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Warmińsko-mazurskie</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wielkopolskie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Zachodniopomorskie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$Y$2:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CA6-4BE9-8F55-49CF543E6617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="284"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1597828512"/>
+        <c:axId val="1515388064"/>
+      </c:barChart>
+      <c:valAx>
+        <c:axId val="1515402320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Długość sieci ciepłowniczej na mieszkańca [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1597839328"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1597839328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1515402320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1515388064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Długość sieci</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> ciepłowniczej [km]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1597828512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1597828512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1515388064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4971,6 +6983,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5474,7 +7526,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5977,8 +8029,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6182,23 +8234,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6303,8 +8354,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6436,20 +8487,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6482,7 +8532,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6985,8 +9035,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7190,22 +9240,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7310,8 +9361,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7443,19 +9494,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7488,7 +9540,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7991,7 +10043,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8494,7 +10546,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8965,6 +11017,1528 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9073,13 +12647,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>92764</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>102705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>430695</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>29818</xdr:rowOff>
@@ -9223,7 +12797,7 @@
       <xdr:rowOff>147919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>17929</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>165848</xdr:rowOff>
@@ -9282,6 +12856,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>927032</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>847613</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8F41C7-2D35-4812-A8F5-A5A70A7B16FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>58270</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>439270</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172C2256-2BAD-4D45-9DCB-1925BF3BDBFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>143434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>782768</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Wykres 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E9EE97-1D7A-42B2-B412-64B3604A50E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9587,10 +13269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9598,9 +13280,12 @@
     <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="6" width="26" customWidth="1"/>
-    <col min="7" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="29.88671875" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -9615,11 +13300,11 @@
     <col min="22" max="22" width="22.109375" customWidth="1"/>
     <col min="23" max="23" width="23.77734375" customWidth="1"/>
     <col min="24" max="24" width="17.88671875" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" customWidth="1"/>
-    <col min="26" max="1031" width="8.88671875" customWidth="1"/>
+    <col min="25" max="28" width="24.109375" customWidth="1"/>
+    <col min="29" max="1034" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9692,32 +13377,41 @@
       <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="Z1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AF1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AG1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AH1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AI1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AK1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AL1" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -9725,7 +13419,7 @@
         <v>3526.9</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:C17" si="0">B2/Z2*1000</f>
+        <f t="shared" ref="C2:C17" si="0">B2/AC2*1000</f>
         <v>1.2126361159886496</v>
       </c>
       <c r="D2" s="7">
@@ -9735,28 +13429,28 @@
         <f>D2/B2</f>
         <v>0.5344636933284187</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <v>1716.4</v>
       </c>
       <c r="G2" s="5">
         <v>21136.799999999999</v>
       </c>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H17" si="1">G2/Z2*1000</f>
+        <f t="shared" ref="H2:H17" si="1">G2/AC2*1000</f>
         <v>7.267358602860555</v>
       </c>
       <c r="I2" s="12">
         <v>22666</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J17" si="2">I2/Z2*1000</f>
+        <f t="shared" ref="J2:J17" si="2">I2/AC2*1000</f>
         <v>7.7931356729702381</v>
       </c>
       <c r="K2">
         <v>12655</v>
       </c>
       <c r="L2">
-        <f>K2/Z2*1000</f>
+        <f t="shared" ref="L2:L17" si="3">K2/AC2*1000</f>
         <v>4.3511043828394227</v>
       </c>
       <c r="M2" s="5">
@@ -9798,38 +13492,48 @@
       <c r="Y2" s="14">
         <v>0.59</v>
       </c>
-      <c r="Z2" s="9">
+      <c r="Z2" s="7">
+        <v>3512.7</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>3046.6</v>
+      </c>
+      <c r="AB2" s="24">
+        <f>AA2/Z2</f>
+        <v>0.86731004640305176</v>
+      </c>
+      <c r="AC2" s="9">
         <v>2908457</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="16">
+      <c r="AE2" s="16">
         <v>76324</v>
       </c>
-      <c r="AC2" s="16">
+      <c r="AF2" s="16">
         <v>208468</v>
       </c>
-      <c r="AD2" s="16">
+      <c r="AG2" s="16">
         <v>232160</v>
       </c>
-      <c r="AE2" s="16">
+      <c r="AH2" s="16">
         <v>372087</v>
       </c>
-      <c r="AF2" s="16">
+      <c r="AI2" s="16">
         <v>286437</v>
       </c>
-      <c r="AG2" s="16">
+      <c r="AJ2" s="16">
         <v>221593</v>
       </c>
-      <c r="AH2" s="16" t="s">
+      <c r="AK2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="17">
+      <c r="AL2" s="17">
         <v>631188</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -9844,10 +13548,10 @@
         <v>2062</v>
       </c>
       <c r="E3" s="22">
-        <f t="shared" ref="E3:E17" si="3">D3/B3</f>
+        <f t="shared" ref="E3:E17" si="4">D3/B3</f>
         <v>0.45037567709243409</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>1249.5</v>
       </c>
       <c r="G3" s="5">
@@ -9868,7 +13572,7 @@
         <v>9232</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L17" si="4">K3/Z3*1000</f>
+        <f t="shared" si="3"/>
         <v>4.417241788485315</v>
       </c>
       <c r="M3" s="5">
@@ -9910,38 +13614,48 @@
       <c r="Y3" s="14">
         <v>0.6</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="7">
+        <v>4548.8999999999996</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>3647.7</v>
+      </c>
+      <c r="AB3" s="24">
+        <f t="shared" ref="AB3:AB17" si="5">AA3/Z3</f>
+        <v>0.80188617028292553</v>
+      </c>
+      <c r="AC3" s="9">
         <v>2089992</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AE3" s="16">
         <v>65011</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AF3" s="16">
         <v>82069</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AG3" s="16">
         <v>184549</v>
       </c>
-      <c r="AE3" s="16">
+      <c r="AH3" s="16">
         <v>75875</v>
       </c>
-      <c r="AF3" s="16">
+      <c r="AI3" s="16">
         <v>173488</v>
       </c>
-      <c r="AG3" s="16">
+      <c r="AJ3" s="16">
         <v>115546</v>
       </c>
-      <c r="AH3" s="16">
+      <c r="AK3" s="16">
         <v>204299</v>
       </c>
-      <c r="AI3" s="17">
+      <c r="AL3" s="17">
         <v>361254</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -9956,10 +13670,10 @@
         <v>2128</v>
       </c>
       <c r="E4" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.78718603188695291</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>1027.5999999999999</v>
       </c>
       <c r="G4" s="5">
@@ -9980,7 +13694,7 @@
         <v>7363</v>
       </c>
       <c r="L4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.4282452394277536</v>
       </c>
       <c r="M4" s="5">
@@ -10022,38 +13736,51 @@
       <c r="Y4" s="14">
         <v>0.48</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="7">
+        <v>2665.6</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>1842.5</v>
+      </c>
+      <c r="AB4" s="24">
+        <f t="shared" si="5"/>
+        <v>0.69121398559423775</v>
+      </c>
+      <c r="AC4" s="9">
         <v>2147746</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AE4" s="16">
         <v>43150</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AF4" s="16">
         <v>51832</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AG4" s="16">
         <v>125922</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AH4" s="16">
         <v>247126</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AI4" s="16">
         <v>189499</v>
       </c>
-      <c r="AG4" s="16" t="s">
+      <c r="AJ4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AH4" s="16" t="s">
+      <c r="AK4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="17">
+      <c r="AL4" s="17">
         <v>347678</v>
       </c>
+      <c r="AN4">
+        <v>1634.9</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -10068,10 +13795,10 @@
         <v>326</v>
       </c>
       <c r="E5" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.32222991005238705</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="7">
         <v>296.60000000000002</v>
       </c>
       <c r="G5" s="5">
@@ -10092,7 +13819,7 @@
         <v>4179</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.0958260601956074</v>
       </c>
       <c r="M5" s="5">
@@ -10134,38 +13861,51 @@
       <c r="Y5" s="14">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="7">
+        <v>828.5</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>632.9</v>
+      </c>
+      <c r="AB5" s="24">
+        <f t="shared" si="5"/>
+        <v>0.76391068195534095</v>
+      </c>
+      <c r="AC5" s="9">
         <v>1020307</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="16">
+      <c r="AE5" s="16">
         <v>59754</v>
       </c>
-      <c r="AC5" s="16">
+      <c r="AF5" s="16">
         <v>43599</v>
       </c>
-      <c r="AD5" s="16">
+      <c r="AG5" s="16">
         <v>172759</v>
       </c>
-      <c r="AE5" s="16">
+      <c r="AH5" s="16">
         <v>127850</v>
       </c>
-      <c r="AF5" s="16" t="s">
+      <c r="AI5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AG5" s="16">
+      <c r="AJ5" s="16">
         <v>243632</v>
       </c>
-      <c r="AH5" s="16" t="s">
+      <c r="AK5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AI5" s="17" t="s">
+      <c r="AL5" s="17" t="s">
         <v>35</v>
       </c>
+      <c r="AN5">
+        <v>3372.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -10180,10 +13920,10 @@
         <v>2252</v>
       </c>
       <c r="E6" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.65214873161125919</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
         <v>1547.7</v>
       </c>
       <c r="G6" s="5">
@@ -10204,7 +13944,7 @@
         <v>12354</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.9334381199743147</v>
       </c>
       <c r="M6" s="5">
@@ -10246,38 +13986,52 @@
       <c r="Y6" s="14">
         <v>0.62</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="7">
+        <v>3701.7</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>3105.2</v>
+      </c>
+      <c r="AB6" s="24">
+        <f t="shared" si="5"/>
+        <v>0.8388578220817462</v>
+      </c>
+      <c r="AC6" s="9">
         <v>2504136</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="16">
+      <c r="AE6" s="16">
         <v>41953</v>
       </c>
-      <c r="AC6" s="16">
+      <c r="AF6" s="16">
         <v>59908</v>
       </c>
-      <c r="AD6" s="16">
+      <c r="AG6" s="16">
         <v>109778</v>
       </c>
-      <c r="AE6" s="16">
+      <c r="AH6" s="16">
         <v>347453</v>
       </c>
-      <c r="AF6" s="16">
+      <c r="AI6" s="16">
         <v>328014</v>
       </c>
-      <c r="AG6" s="16" t="s">
+      <c r="AJ6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AH6" s="16" t="s">
+      <c r="AK6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AI6" s="17">
+      <c r="AL6" s="17">
         <v>718960</v>
       </c>
+      <c r="AN6">
+        <f>AN4/AN5</f>
+        <v>0.48475953270473821</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -10292,10 +14046,10 @@
         <v>2295</v>
       </c>
       <c r="E7" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.53480297345792649</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="7">
         <v>1620.8</v>
       </c>
       <c r="G7" s="5">
@@ -10316,7 +14070,7 @@
         <v>10408</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.0899530213137885</v>
       </c>
       <c r="M7" s="5">
@@ -10358,38 +14112,48 @@
       <c r="Y7" s="14">
         <v>0.48</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="7">
+        <v>3961.4</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>2760.5</v>
+      </c>
+      <c r="AB7" s="24">
+        <f t="shared" si="5"/>
+        <v>0.69684959862674811</v>
+      </c>
+      <c r="AC7" s="9">
         <v>3368336</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
         <v>22</v>
       </c>
-      <c r="AB7" s="16">
+      <c r="AE7" s="16">
         <v>58431</v>
       </c>
-      <c r="AC7" s="16">
+      <c r="AF7" s="16">
         <v>105223</v>
       </c>
-      <c r="AD7" s="16">
+      <c r="AG7" s="16">
         <v>197640</v>
       </c>
-      <c r="AE7" s="16">
+      <c r="AH7" s="16">
         <v>322621</v>
       </c>
-      <c r="AF7" s="16">
+      <c r="AI7" s="16">
         <v>84129</v>
       </c>
-      <c r="AG7" s="16">
+      <c r="AJ7" s="16">
         <v>112952</v>
       </c>
-      <c r="AH7" s="16" t="s">
+      <c r="AK7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AI7" s="17">
+      <c r="AL7" s="17">
         <v>758334</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -10404,10 +14168,10 @@
         <v>3513</v>
       </c>
       <c r="E8" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34938884302863332</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <v>2998</v>
       </c>
       <c r="G8" s="5">
@@ -10428,7 +14192,7 @@
         <v>28925</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.4222402015854874</v>
       </c>
       <c r="M8" s="5">
@@ -10470,38 +14234,48 @@
       <c r="Y8" s="14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="Z8" s="7">
+        <v>10096.4</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>7688.7</v>
+      </c>
+      <c r="AB8" s="24">
+        <f t="shared" si="5"/>
+        <v>0.761528861772513</v>
+      </c>
+      <c r="AC8" s="9">
         <v>5334511</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
         <v>23</v>
       </c>
-      <c r="AB8" s="16">
+      <c r="AE8" s="16">
         <v>81551</v>
       </c>
-      <c r="AC8" s="16">
+      <c r="AF8" s="16">
         <v>77585</v>
       </c>
-      <c r="AD8" s="16">
+      <c r="AG8" s="16">
         <v>387376</v>
       </c>
-      <c r="AE8" s="16">
+      <c r="AH8" s="16">
         <v>554384</v>
       </c>
-      <c r="AF8" s="16">
+      <c r="AI8" s="16">
         <v>242814</v>
       </c>
-      <c r="AG8" s="16">
+      <c r="AJ8" s="16">
         <v>123627</v>
       </c>
-      <c r="AH8" s="16">
+      <c r="AK8" s="16">
         <v>219703</v>
       </c>
-      <c r="AI8" s="17">
+      <c r="AL8" s="17">
         <v>1715517</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -10516,10 +14290,10 @@
         <v>945</v>
       </c>
       <c r="E9" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.59961928934010156</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="7">
         <v>607.9</v>
       </c>
       <c r="G9" s="5">
@@ -10540,7 +14314,7 @@
         <v>3505</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.5019952880428589</v>
       </c>
       <c r="M9" s="5">
@@ -10582,38 +14356,48 @@
       <c r="Y9" s="14">
         <v>0.61</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z9" s="7">
+        <v>1547</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>1338.5</v>
+      </c>
+      <c r="AB9" s="24">
+        <f t="shared" si="5"/>
+        <v>0.86522301228183585</v>
+      </c>
+      <c r="AC9" s="9">
         <v>1000858</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
         <v>24</v>
       </c>
-      <c r="AB9" s="16">
+      <c r="AE9" s="16">
         <v>28073</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AF9" s="16">
         <v>93866</v>
       </c>
-      <c r="AD9" s="16">
+      <c r="AG9" s="16">
         <v>91406</v>
       </c>
-      <c r="AE9" s="16">
+      <c r="AH9" s="16">
         <v>129179</v>
       </c>
-      <c r="AF9" s="16">
+      <c r="AI9" s="16">
         <v>63635</v>
       </c>
-      <c r="AG9" s="16">
+      <c r="AJ9" s="16">
         <v>121576</v>
       </c>
-      <c r="AH9" s="16" t="s">
+      <c r="AK9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AI9" s="17" t="s">
+      <c r="AL9" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -10628,10 +14412,10 @@
         <v>1358</v>
       </c>
       <c r="E10" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.84573706171763097</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="7">
         <v>734.8</v>
       </c>
       <c r="G10" s="5">
@@ -10652,7 +14436,7 @@
         <v>5320</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.498606275540852</v>
       </c>
       <c r="M10" s="5">
@@ -10694,38 +14478,48 @@
       <c r="Y10" s="14">
         <v>0.35</v>
       </c>
-      <c r="Z10" s="9">
+      <c r="Z10" s="7">
+        <v>1590.4</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>1041.9000000000001</v>
+      </c>
+      <c r="AB10" s="24">
+        <f t="shared" si="5"/>
+        <v>0.65511820925553321</v>
+      </c>
+      <c r="AC10" s="9">
         <v>2129187</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
         <v>25</v>
       </c>
-      <c r="AB10" s="16">
+      <c r="AE10" s="16">
         <v>50646</v>
       </c>
-      <c r="AC10" s="16">
+      <c r="AF10" s="16">
         <v>96163</v>
       </c>
-      <c r="AD10" s="16">
+      <c r="AG10" s="16">
         <v>103699</v>
       </c>
-      <c r="AE10" s="16">
+      <c r="AH10" s="16">
         <v>258487</v>
       </c>
-      <c r="AF10" s="16">
+      <c r="AI10" s="16">
         <v>189703</v>
       </c>
-      <c r="AG10" s="16">
+      <c r="AJ10" s="16">
         <v>182028</v>
       </c>
-      <c r="AH10" s="16" t="s">
+      <c r="AK10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AI10" s="17" t="s">
+      <c r="AL10" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -10740,10 +14534,10 @@
         <v>1131</v>
       </c>
       <c r="E11" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5625863498203925</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="7">
         <v>630.29999999999995</v>
       </c>
       <c r="G11" s="5">
@@ -10764,7 +14558,7 @@
         <v>5295</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.4424196966569856</v>
       </c>
       <c r="M11" s="5">
@@ -10806,38 +14600,48 @@
       <c r="Y11" s="14">
         <v>0.53</v>
       </c>
-      <c r="Z11" s="9">
+      <c r="Z11" s="7">
+        <v>727.3</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>656.1</v>
+      </c>
+      <c r="AB11" s="24">
+        <f t="shared" si="5"/>
+        <v>0.90210367111233336</v>
+      </c>
+      <c r="AC11" s="9">
         <v>1191918</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
         <v>26</v>
       </c>
-      <c r="AB11" s="16">
+      <c r="AE11" s="16">
         <v>54135</v>
       </c>
-      <c r="AC11" s="16">
+      <c r="AF11" s="16">
         <v>36567</v>
       </c>
-      <c r="AD11" s="16">
+      <c r="AG11" s="16">
         <v>81278</v>
       </c>
-      <c r="AE11" s="16">
+      <c r="AH11" s="16">
         <v>124186</v>
       </c>
-      <c r="AF11" s="16">
+      <c r="AI11" s="16">
         <v>132216</v>
       </c>
-      <c r="AG11" s="16" t="s">
+      <c r="AJ11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AH11" s="16" t="s">
+      <c r="AK11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AI11" s="17">
+      <c r="AL11" s="17">
         <v>294921</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -10852,10 +14656,10 @@
         <v>1810</v>
       </c>
       <c r="E12" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.48468294772922021</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="7">
         <v>1591</v>
       </c>
       <c r="G12" s="5">
@@ -10876,7 +14680,7 @@
         <v>11031</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.7917597890948045</v>
       </c>
       <c r="M12" s="5">
@@ -10918,38 +14722,48 @@
       <c r="Y12" s="14">
         <v>0.69</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="7">
+        <v>3384</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>2757.7</v>
+      </c>
+      <c r="AB12" s="24">
+        <f t="shared" si="5"/>
+        <v>0.81492316784869967</v>
+      </c>
+      <c r="AC12" s="9">
         <v>2302077</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
         <v>27</v>
       </c>
-      <c r="AB12" s="16">
+      <c r="AE12" s="16">
         <v>32978</v>
       </c>
-      <c r="AC12" s="16">
+      <c r="AF12" s="16">
         <v>54600</v>
       </c>
-      <c r="AD12" s="16">
+      <c r="AG12" s="16">
         <v>131470</v>
       </c>
-      <c r="AE12" s="16">
+      <c r="AH12" s="16">
         <v>363285</v>
       </c>
-      <c r="AF12" s="16">
+      <c r="AI12" s="16">
         <v>205993</v>
       </c>
-      <c r="AG12" s="16" t="s">
+      <c r="AJ12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AH12" s="16">
+      <c r="AK12" s="16">
         <v>248726</v>
       </c>
-      <c r="AI12" s="17">
+      <c r="AL12" s="17">
         <v>460427</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -10964,10 +14778,10 @@
         <v>5633</v>
       </c>
       <c r="E13" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.53618001484894062</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="7">
         <v>3126.6</v>
       </c>
       <c r="G13" s="5">
@@ -10988,7 +14802,7 @@
         <v>21926</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.7811520644476442</v>
       </c>
       <c r="M13" s="5">
@@ -11030,38 +14844,48 @@
       <c r="Y13" s="14">
         <v>0.68</v>
       </c>
-      <c r="Z13" s="9">
+      <c r="Z13" s="7">
+        <v>10285.299999999999</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>6823.4</v>
+      </c>
+      <c r="AB13" s="24">
+        <f t="shared" si="5"/>
+        <v>0.66341283190572953</v>
+      </c>
+      <c r="AC13" s="9">
         <v>4585924</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
         <v>28</v>
       </c>
-      <c r="AB13" s="16">
+      <c r="AE13" s="16">
         <v>40424</v>
       </c>
-      <c r="AC13" s="16">
+      <c r="AF13" s="16">
         <v>89726</v>
       </c>
-      <c r="AD13" s="16">
+      <c r="AG13" s="16">
         <v>179913</v>
       </c>
-      <c r="AE13" s="16">
+      <c r="AH13" s="16">
         <v>421523</v>
       </c>
-      <c r="AF13" s="16">
+      <c r="AI13" s="16">
         <v>730307</v>
       </c>
-      <c r="AG13" s="16">
+      <c r="AJ13" s="16">
         <v>1362872</v>
       </c>
-      <c r="AH13" s="16">
+      <c r="AK13" s="16">
         <v>447985</v>
       </c>
-      <c r="AI13" s="17">
+      <c r="AL13" s="17">
         <v>307233</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -11076,10 +14900,10 @@
         <v>1191</v>
       </c>
       <c r="E14" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9624242424242424</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="7">
         <v>465.4</v>
       </c>
       <c r="G14" s="5">
@@ -11100,7 +14924,7 @@
         <v>4117</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.2592449508223713</v>
       </c>
       <c r="M14" s="5">
@@ -11142,38 +14966,48 @@
       <c r="Y14" s="14">
         <v>0.37</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="7">
+        <v>1217.2</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>916.7</v>
+      </c>
+      <c r="AB14" s="24">
+        <f t="shared" si="5"/>
+        <v>0.75312191915872495</v>
+      </c>
+      <c r="AC14" s="9">
         <v>1263176</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
         <v>29</v>
       </c>
-      <c r="AB14" s="16">
+      <c r="AE14" s="16">
         <v>40364</v>
       </c>
-      <c r="AC14" s="16">
+      <c r="AF14" s="16">
         <v>42515</v>
       </c>
-      <c r="AD14" s="16">
+      <c r="AG14" s="16">
         <v>70505</v>
       </c>
-      <c r="AE14" s="16">
+      <c r="AH14" s="16">
         <v>93248</v>
       </c>
-      <c r="AF14" s="16">
+      <c r="AI14" s="16">
         <v>124566</v>
       </c>
-      <c r="AG14" s="16" t="s">
+      <c r="AJ14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AH14" s="16">
+      <c r="AK14" s="16">
         <v>200938</v>
       </c>
-      <c r="AI14" s="17" t="s">
+      <c r="AL14" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -11188,10 +15022,10 @@
         <v>1383</v>
       </c>
       <c r="E15" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.94615858247246354</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="7">
         <v>657.4</v>
       </c>
       <c r="G15" s="5">
@@ -11212,7 +15046,7 @@
         <v>6217</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.3055000564417325</v>
       </c>
       <c r="M15" s="5">
@@ -11254,38 +15088,48 @@
       <c r="Y15" s="14">
         <v>0.46</v>
       </c>
-      <c r="Z15" s="9">
+      <c r="Z15" s="7">
+        <v>1458.5</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>1248.2</v>
+      </c>
+      <c r="AB15" s="24">
+        <f t="shared" si="5"/>
+        <v>0.85581076448405902</v>
+      </c>
+      <c r="AC15" s="9">
         <v>1443967</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
         <v>30</v>
       </c>
-      <c r="AB15" s="16">
+      <c r="AE15" s="16">
         <v>59616</v>
       </c>
-      <c r="AC15" s="16">
+      <c r="AF15" s="16">
         <v>44003</v>
       </c>
-      <c r="AD15" s="16">
+      <c r="AG15" s="16">
         <v>179549</v>
       </c>
-      <c r="AE15" s="16">
+      <c r="AH15" s="16">
         <v>219123</v>
       </c>
-      <c r="AF15" s="16">
+      <c r="AI15" s="16">
         <v>59646</v>
       </c>
-      <c r="AG15" s="16">
+      <c r="AJ15" s="16">
         <v>298300</v>
       </c>
-      <c r="AH15" s="16" t="s">
+      <c r="AK15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AI15" s="17" t="s">
+      <c r="AL15" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -11300,10 +15144,10 @@
         <v>1958</v>
       </c>
       <c r="E16" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.58064707452329412</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="7">
         <v>1320</v>
       </c>
       <c r="G16" s="5">
@@ -11324,7 +15168,7 @@
         <v>11736</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.3796207372100104</v>
       </c>
       <c r="M16" s="5">
@@ -11366,38 +15210,48 @@
       <c r="Y16" s="14">
         <v>0.38</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="7">
+        <v>3042.3</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>2440.6999999999998</v>
+      </c>
+      <c r="AB16" s="24">
+        <f t="shared" si="5"/>
+        <v>0.80225487295795939</v>
+      </c>
+      <c r="AC16" s="9">
         <v>3472579</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
         <v>31</v>
       </c>
-      <c r="AB16" s="16">
+      <c r="AE16" s="16">
         <v>146696</v>
       </c>
-      <c r="AC16" s="16">
+      <c r="AF16" s="16">
         <v>149740</v>
       </c>
-      <c r="AD16" s="16">
+      <c r="AG16" s="16">
         <v>265877</v>
       </c>
-      <c r="AE16" s="16">
+      <c r="AH16" s="16">
         <v>341813</v>
       </c>
-      <c r="AF16" s="16">
+      <c r="AI16" s="16">
         <v>360573</v>
       </c>
-      <c r="AG16" s="16">
+      <c r="AJ16" s="16">
         <v>104676</v>
       </c>
-      <c r="AH16" s="16" t="s">
+      <c r="AK16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AI16" s="17">
+      <c r="AL16" s="17">
         <v>550742</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -11412,10 +15266,10 @@
         <v>1473</v>
       </c>
       <c r="E17" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.66585299701654466</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="7">
         <v>866</v>
       </c>
       <c r="G17" s="5">
@@ -11436,7 +15290,7 @@
         <v>8237</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.8017087250959083</v>
       </c>
       <c r="M17" s="5">
@@ -11478,47 +15332,57 @@
       <c r="Y17" s="14">
         <v>0.51</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Z17" s="7">
+        <v>2200.6999999999998</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>1759.7</v>
+      </c>
+      <c r="AB17" s="24">
+        <f t="shared" si="5"/>
+        <v>0.79960921524969342</v>
+      </c>
+      <c r="AC17" s="9">
         <v>1715431</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AD17" t="s">
         <v>32</v>
       </c>
-      <c r="AB17" s="16">
+      <c r="AE17" s="16">
         <v>94607</v>
       </c>
-      <c r="AC17" s="16">
+      <c r="AF17" s="16">
         <v>50481</v>
       </c>
-      <c r="AD17" s="16">
+      <c r="AG17" s="16">
         <v>191861</v>
       </c>
-      <c r="AE17" s="16">
+      <c r="AH17" s="16">
         <v>258645</v>
       </c>
-      <c r="AF17" s="16">
+      <c r="AI17" s="16">
         <v>69724</v>
       </c>
-      <c r="AG17" s="16">
+      <c r="AJ17" s="16">
         <v>109343</v>
       </c>
-      <c r="AH17" s="16" t="s">
+      <c r="AK17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AI17" s="17">
+      <c r="AL17" s="17">
         <v>408913</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N22" s="10"/>
     </row>
   </sheetData>

--- a/regions_data/Ciepłownictwo/data.xlsx
+++ b/regions_data/Ciepłownictwo/data.xlsx
@@ -1928,6 +1928,696 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1405579360"/>
         <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>zatrudnienie na 1 MW mocy cieplnej zainstalowanej</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dolnośląskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kujawsko-pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lubelskie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lubuskie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Łódzkie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Małopolskie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mazowieckie</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Opolskie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Podkarpackie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Podlaskie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Śląskie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Świętokrzyskie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Warmińsko-mazurskie</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wielkopolskie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Zachodniopomorskie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5344636933284187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45037567709243409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78718603188695291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32222991005238705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65214873161125919</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53480297345792649</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34938884302863332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59961928934010156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84573706171763097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5625863498203925</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48468294772922021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53618001484894062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9624242424242424</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94615858247246354</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58064707452329412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66585299701654466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3919-446A-B203-025E5B216BE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="48"/>
+        <c:overlap val="-27"/>
+        <c:axId val="494233983"/>
+        <c:axId val="480420175"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>zatrudnienie w ciepłownictwie ogółem</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dolnośląskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kujawsko-pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lubelskie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lubuskie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Łódzkie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Małopolskie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mazowieckie</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Opolskie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Podkarpackie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Podlaskie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Śląskie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Świętokrzyskie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Warmińsko-mazurskie</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wielkopolskie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Zachodniopomorskie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2128</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3513</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5633</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1191</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3919-446A-B203-025E5B216BE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="478452895"/>
+        <c:axId val="549364335"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="494233983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480420175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480420175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Zatrudnienie na</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> 1 MW mocy cieplnej zainstalowanej [etaty]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#\ ##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494233983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="549364335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Zatrudnienie w ciepłownictwie</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [etaty\</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478452895"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="478452895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="549364335"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6703,6 +7393,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8030,6 +8760,509 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12899,16 +14132,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>58270</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>439270</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>233082</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12964,6 +14197,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>174812</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>13447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1698812</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>31377</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1187AE86-DC50-4AEF-9446-1390C0A044BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13271,8 +14540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13301,7 +14570,9 @@
     <col min="23" max="23" width="23.77734375" customWidth="1"/>
     <col min="24" max="24" width="17.88671875" customWidth="1"/>
     <col min="25" max="28" width="24.109375" customWidth="1"/>
-    <col min="29" max="1034" width="8.88671875" customWidth="1"/>
+    <col min="29" max="42" width="8.88671875" customWidth="1"/>
+    <col min="43" max="43" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="1034" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">

--- a/regions_data/Ciepłownictwo/data.xlsx
+++ b/regions_data/Ciepłownictwo/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,24 +28,6 @@
   </si>
   <si>
     <t>Długość sieci ciepłowniczej</t>
-  </si>
-  <si>
-    <t>1_Produkcja ciepła</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>SO2</t>
-  </si>
-  <si>
-    <t>NOX</t>
-  </si>
-  <si>
-    <t>Pyły</t>
-  </si>
-  <si>
-    <t>3_Nakłady ogółem</t>
   </si>
   <si>
     <t>Sprawność wytwarzania</t>
@@ -183,9 +165,6 @@
     <t>Zużycie ciepła przez gospodarstwa domowe</t>
   </si>
   <si>
-    <t>Ciepło zużywane przez gospodarstwa domowe na mieszkańca [GJ]</t>
-  </si>
-  <si>
     <t>Zatrudnienie na 1MW zainstalowany</t>
   </si>
   <si>
@@ -199,6 +178,27 @@
   </si>
   <si>
     <t>wykorzystana/osiągalna</t>
+  </si>
+  <si>
+    <t>Produkcja ciepła</t>
+  </si>
+  <si>
+    <t>Zużycie przez gospodarstwa na mieszkańca</t>
+  </si>
+  <si>
+    <t>Emisja CO2</t>
+  </si>
+  <si>
+    <t>Emisja SO2</t>
+  </si>
+  <si>
+    <t>Emisja NOX</t>
+  </si>
+  <si>
+    <t>Emisja Pyły</t>
+  </si>
+  <si>
+    <t>Nakłady ogółem</t>
   </si>
 </sst>
 </file>
@@ -2618,6 +2618,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="549364335"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -14540,8 +14541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14580,111 +14581,111 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="X1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="Y1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>16</v>
-      </c>
       <c r="Z1" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AE1" s="18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF1" s="19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AG1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="AH1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI1" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ1" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL1" s="21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5">
         <v>3526.9</v>
@@ -14777,7 +14778,7 @@
         <v>2908457</v>
       </c>
       <c r="AD2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE2" s="16">
         <v>76324</v>
@@ -14798,7 +14799,7 @@
         <v>221593</v>
       </c>
       <c r="AK2" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL2" s="17">
         <v>631188</v>
@@ -14806,7 +14807,7 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5">
         <v>4578.3999999999996</v>
@@ -14899,7 +14900,7 @@
         <v>2089992</v>
       </c>
       <c r="AD3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE3" s="16">
         <v>65011</v>
@@ -14928,7 +14929,7 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5">
         <v>2703.3</v>
@@ -15021,7 +15022,7 @@
         <v>2147746</v>
       </c>
       <c r="AD4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE4" s="16">
         <v>43150</v>
@@ -15039,10 +15040,10 @@
         <v>189499</v>
       </c>
       <c r="AJ4" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AK4" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL4" s="17">
         <v>347678</v>
@@ -15053,7 +15054,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5">
         <v>1011.7</v>
@@ -15146,7 +15147,7 @@
         <v>1020307</v>
       </c>
       <c r="AD5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE5" s="16">
         <v>59754</v>
@@ -15161,16 +15162,16 @@
         <v>127850</v>
       </c>
       <c r="AI5" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AJ5" s="16">
         <v>243632</v>
       </c>
       <c r="AK5" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL5" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AN5">
         <v>3372.6</v>
@@ -15178,7 +15179,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5">
         <v>3453.2</v>
@@ -15271,7 +15272,7 @@
         <v>2504136</v>
       </c>
       <c r="AD6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE6" s="16">
         <v>41953</v>
@@ -15289,10 +15290,10 @@
         <v>328014</v>
       </c>
       <c r="AJ6" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AK6" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL6" s="17">
         <v>718960</v>
@@ -15304,7 +15305,7 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5">
         <v>4291.3</v>
@@ -15397,7 +15398,7 @@
         <v>3368336</v>
       </c>
       <c r="AD7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE7" s="16">
         <v>58431</v>
@@ -15418,7 +15419,7 @@
         <v>112952</v>
       </c>
       <c r="AK7" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL7" s="17">
         <v>758334</v>
@@ -15426,7 +15427,7 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5">
         <v>10054.700000000001</v>
@@ -15519,7 +15520,7 @@
         <v>5334511</v>
       </c>
       <c r="AD8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE8" s="16">
         <v>81551</v>
@@ -15548,7 +15549,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5">
         <v>1576</v>
@@ -15641,7 +15642,7 @@
         <v>1000858</v>
       </c>
       <c r="AD9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AE9" s="16">
         <v>28073</v>
@@ -15662,15 +15663,15 @@
         <v>121576</v>
       </c>
       <c r="AK9" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL9" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5">
         <v>1605.7</v>
@@ -15763,7 +15764,7 @@
         <v>2129187</v>
       </c>
       <c r="AD10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE10" s="16">
         <v>50646</v>
@@ -15784,15 +15785,15 @@
         <v>182028</v>
       </c>
       <c r="AK10" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL10" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" s="11">
         <v>723.8</v>
@@ -15885,7 +15886,7 @@
         <v>1191918</v>
       </c>
       <c r="AD11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AE11" s="16">
         <v>54135</v>
@@ -15903,10 +15904,10 @@
         <v>132216</v>
       </c>
       <c r="AJ11" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AK11" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL11" s="17">
         <v>294921</v>
@@ -15914,7 +15915,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5">
         <v>3734.4</v>
@@ -16007,7 +16008,7 @@
         <v>2302077</v>
       </c>
       <c r="AD12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AE12" s="16">
         <v>32978</v>
@@ -16025,7 +16026,7 @@
         <v>205993</v>
       </c>
       <c r="AJ12" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AK12" s="16">
         <v>248726</v>
@@ -16036,7 +16037,7 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5">
         <v>10505.8</v>
@@ -16129,7 +16130,7 @@
         <v>4585924</v>
       </c>
       <c r="AD13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE13" s="16">
         <v>40424</v>
@@ -16158,7 +16159,7 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5">
         <v>1237.5</v>
@@ -16251,7 +16252,7 @@
         <v>1263176</v>
       </c>
       <c r="AD14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE14" s="16">
         <v>40364</v>
@@ -16269,18 +16270,18 @@
         <v>124566</v>
       </c>
       <c r="AJ14" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AK14" s="16">
         <v>200938</v>
       </c>
       <c r="AL14" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5">
         <v>1461.7</v>
@@ -16373,7 +16374,7 @@
         <v>1443967</v>
       </c>
       <c r="AD15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AE15" s="16">
         <v>59616</v>
@@ -16394,15 +16395,15 @@
         <v>298300</v>
       </c>
       <c r="AK15" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL15" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B16" s="5">
         <v>3372.1</v>
@@ -16495,7 +16496,7 @@
         <v>3472579</v>
       </c>
       <c r="AD16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AE16" s="16">
         <v>146696</v>
@@ -16516,7 +16517,7 @@
         <v>104676</v>
       </c>
       <c r="AK16" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL16" s="17">
         <v>550742</v>
@@ -16524,7 +16525,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B17" s="5">
         <v>2212.1999999999998</v>
@@ -16617,7 +16618,7 @@
         <v>1715431</v>
       </c>
       <c r="AD17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AE17" s="16">
         <v>94607</v>
@@ -16638,7 +16639,7 @@
         <v>109343</v>
       </c>
       <c r="AK17" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL17" s="17">
         <v>408913</v>
